--- a/Code/Results/Cases/Case_0_180/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_180/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06563364349342748</v>
+        <v>0.02211840812437771</v>
       </c>
       <c r="D2">
-        <v>0.1497886015280443</v>
+        <v>0.2281605407615217</v>
       </c>
       <c r="E2">
-        <v>0.08739723485360784</v>
+        <v>0.1655041902529852</v>
       </c>
       <c r="F2">
-        <v>0.5534971705856719</v>
+        <v>1.044059152216271</v>
       </c>
       <c r="G2">
-        <v>0.3105291039896514</v>
+        <v>0.5048982488050342</v>
       </c>
       <c r="H2">
-        <v>0.2586792898289687</v>
+        <v>0.6485391751380547</v>
       </c>
       <c r="I2">
-        <v>0.2976236172357147</v>
+        <v>0.4989997458086108</v>
       </c>
       <c r="J2">
-        <v>0.07263944213831408</v>
+        <v>0.1632197117049579</v>
       </c>
       <c r="K2">
-        <v>2.39831945293875</v>
+        <v>0.8056589153039511</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5961822189869039</v>
+        <v>0.3129514844872716</v>
       </c>
       <c r="N2">
-        <v>0.8841772379675206</v>
+        <v>1.210212824776477</v>
       </c>
       <c r="O2">
-        <v>1.149451979926155</v>
+        <v>2.271558306032517</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05738354991830619</v>
+        <v>0.01946547193403347</v>
       </c>
       <c r="D3">
-        <v>0.1372361664068222</v>
+        <v>0.2258667498629023</v>
       </c>
       <c r="E3">
-        <v>0.08245551075692603</v>
+        <v>0.1652913602818984</v>
       </c>
       <c r="F3">
-        <v>0.5265056057153359</v>
+        <v>1.04579205144001</v>
       </c>
       <c r="G3">
-        <v>0.2924608496794363</v>
+        <v>0.5054511691111259</v>
       </c>
       <c r="H3">
-        <v>0.2557180961837062</v>
+        <v>0.6525337481336919</v>
       </c>
       <c r="I3">
-        <v>0.280052840518497</v>
+        <v>0.4990022720666083</v>
       </c>
       <c r="J3">
-        <v>0.07072293912236916</v>
+        <v>0.1640221824738681</v>
       </c>
       <c r="K3">
-        <v>2.0913145406914</v>
+        <v>0.7091709022875534</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5197308212752603</v>
+        <v>0.2907857633141759</v>
       </c>
       <c r="N3">
-        <v>0.8783952401987563</v>
+        <v>1.21121520712552</v>
       </c>
       <c r="O3">
-        <v>1.104598252471789</v>
+        <v>2.280829316501269</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0523159744340802</v>
+        <v>0.0178282052865697</v>
       </c>
       <c r="D4">
-        <v>0.1296474062723547</v>
+        <v>0.224544235340062</v>
       </c>
       <c r="E4">
-        <v>0.07953686650312264</v>
+        <v>0.1652350726342817</v>
       </c>
       <c r="F4">
-        <v>0.510986620169426</v>
+        <v>1.047448171944325</v>
       </c>
       <c r="G4">
-        <v>0.2821168718160934</v>
+        <v>0.5061552958856268</v>
       </c>
       <c r="H4">
-        <v>0.25437863041725</v>
+        <v>0.6552835364291312</v>
       </c>
       <c r="I4">
-        <v>0.2698728445150955</v>
+        <v>0.4993228547451842</v>
       </c>
       <c r="J4">
-        <v>0.06968466318237176</v>
+        <v>0.1645973232094491</v>
       </c>
       <c r="K4">
-        <v>1.902598641723046</v>
+        <v>0.6497833931098285</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4728817809348413</v>
+        <v>0.2772331026052868</v>
       </c>
       <c r="N4">
-        <v>0.8756712170681027</v>
+        <v>1.212242156522244</v>
       </c>
       <c r="O4">
-        <v>1.079640672964175</v>
+        <v>2.287907377829626</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05024984160615986</v>
+        <v>0.01715893373855693</v>
       </c>
       <c r="D5">
-        <v>0.1265832073057922</v>
+        <v>0.2240269867784548</v>
       </c>
       <c r="E5">
-        <v>0.07837525590284145</v>
+        <v>0.1652308724656493</v>
       </c>
       <c r="F5">
-        <v>0.5049146453995945</v>
+        <v>1.048272002177853</v>
       </c>
       <c r="G5">
-        <v>0.2780797575532716</v>
+        <v>0.5065338456468069</v>
       </c>
       <c r="H5">
-        <v>0.2539484971718551</v>
+        <v>0.6564788520196529</v>
       </c>
       <c r="I5">
-        <v>0.2658693589003427</v>
+        <v>0.4995337148107737</v>
       </c>
       <c r="J5">
-        <v>0.06929488016952945</v>
+        <v>0.1648524289168982</v>
       </c>
       <c r="K5">
-        <v>1.82562790230935</v>
+        <v>0.6255482522211935</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.453808576299032</v>
+        <v>0.2717250874423485</v>
       </c>
       <c r="N5">
-        <v>0.8747625686702207</v>
+        <v>1.212764416319423</v>
       </c>
       <c r="O5">
-        <v>1.070087772449511</v>
+        <v>2.291140096300751</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04990668238599483</v>
+        <v>0.01704767739249036</v>
       </c>
       <c r="D6">
-        <v>0.126076064719129</v>
+        <v>0.2239424105575551</v>
       </c>
       <c r="E6">
-        <v>0.07818401088622551</v>
+        <v>0.1652313076512044</v>
       </c>
       <c r="F6">
-        <v>0.5039212608399879</v>
+        <v>1.048417796280923</v>
       </c>
       <c r="G6">
-        <v>0.2774198598951969</v>
+        <v>0.5066022344421768</v>
       </c>
       <c r="H6">
-        <v>0.2538839298114652</v>
+        <v>0.6566818495865263</v>
       </c>
       <c r="I6">
-        <v>0.2652131079455131</v>
+        <v>0.4995735729662911</v>
       </c>
       <c r="J6">
-        <v>0.06923212709866178</v>
+        <v>0.1648960413121792</v>
       </c>
       <c r="K6">
-        <v>1.812842510153615</v>
+        <v>0.6215220109098141</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4506424390546258</v>
+        <v>0.2708113923741422</v>
       </c>
       <c r="N6">
-        <v>0.8746236744654396</v>
+        <v>1.212857413467887</v>
       </c>
       <c r="O6">
-        <v>1.068537908913939</v>
+        <v>2.291697924082342</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05228811483019058</v>
+        <v>0.01781918761058421</v>
       </c>
       <c r="D7">
-        <v>0.1296059688463629</v>
+        <v>0.2245371716145428</v>
       </c>
       <c r="E7">
-        <v>0.07952108990025053</v>
+        <v>0.1652349400801434</v>
       </c>
       <c r="F7">
-        <v>0.5109037271231074</v>
+        <v>1.04745867924958</v>
       </c>
       <c r="G7">
-        <v>0.2820617180853731</v>
+        <v>0.5061600303075195</v>
       </c>
       <c r="H7">
-        <v>0.2543723670051108</v>
+        <v>0.6552993541353516</v>
       </c>
       <c r="I7">
-        <v>0.2698182756497509</v>
+        <v>0.4993253736743313</v>
       </c>
       <c r="J7">
-        <v>0.06967927343889713</v>
+        <v>0.1646006797063819</v>
       </c>
       <c r="K7">
-        <v>1.901560878140998</v>
+        <v>0.6494566857692519</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4726244860054152</v>
+        <v>0.2771587590812317</v>
       </c>
       <c r="N7">
-        <v>0.8756581553210836</v>
+        <v>1.212248779341849</v>
       </c>
       <c r="O7">
-        <v>1.079509380127575</v>
+        <v>2.287949565042908</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06278907834541059</v>
+        <v>0.02120542569902284</v>
       </c>
       <c r="D8">
-        <v>0.1454349948557194</v>
+        <v>0.227351870226272</v>
       </c>
       <c r="E8">
-        <v>0.08566853145427444</v>
+        <v>0.1654153850184734</v>
       </c>
       <c r="F8">
-        <v>0.5439637972803268</v>
+        <v>1.044533793981522</v>
       </c>
       <c r="G8">
-        <v>0.3041370700468562</v>
+        <v>0.505013168738941</v>
       </c>
       <c r="H8">
-        <v>0.257556038089902</v>
+        <v>0.6498548666622668</v>
       </c>
       <c r="I8">
-        <v>0.29143393990487</v>
+        <v>0.4989343985831098</v>
       </c>
       <c r="J8">
-        <v>0.07194897319588023</v>
+        <v>0.1634793006254043</v>
       </c>
       <c r="K8">
-        <v>2.292499840697218</v>
+        <v>0.7724206954846693</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5697994223178355</v>
+        <v>0.3052971236859889</v>
       </c>
       <c r="N8">
-        <v>0.8820082227155552</v>
+        <v>1.210473218838402</v>
       </c>
       <c r="O8">
-        <v>1.133430685594888</v>
+        <v>2.274467315300583</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.08339296699331555</v>
+        <v>0.02777859969658891</v>
       </c>
       <c r="D9">
-        <v>0.1774890103041997</v>
+        <v>0.2335493939344104</v>
       </c>
       <c r="E9">
-        <v>0.09870318079214258</v>
+        <v>0.1663583158359216</v>
       </c>
       <c r="F9">
-        <v>0.6177691273382635</v>
+        <v>1.04349498440758</v>
       </c>
       <c r="G9">
-        <v>0.3538735856309358</v>
+        <v>0.5056615618921967</v>
       </c>
       <c r="H9">
-        <v>0.2678188916003847</v>
+        <v>0.641533870500254</v>
       </c>
       <c r="I9">
-        <v>0.3390340820317661</v>
+        <v>0.5006999565374528</v>
       </c>
       <c r="J9">
-        <v>0.07756937491479476</v>
+        <v>0.161934089269117</v>
       </c>
       <c r="K9">
-        <v>3.058139540673892</v>
+        <v>1.012345229159052</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7613455906748072</v>
+        <v>0.3609141982558981</v>
       </c>
       <c r="N9">
-        <v>0.9013193405374693</v>
+        <v>1.210244217481588</v>
       </c>
       <c r="O9">
-        <v>1.26117861398123</v>
+        <v>2.259028465020776</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.09857887625844342</v>
+        <v>0.03256608436493025</v>
       </c>
       <c r="D10">
-        <v>0.2017661602374261</v>
+        <v>0.2385119327819183</v>
       </c>
       <c r="E10">
-        <v>0.108968746946271</v>
+        <v>0.1674089124060103</v>
       </c>
       <c r="F10">
-        <v>0.6783633773171474</v>
+        <v>1.045595162854788</v>
       </c>
       <c r="G10">
-        <v>0.3950720839394535</v>
+        <v>0.5079111037872366</v>
       </c>
       <c r="H10">
-        <v>0.2781336870536677</v>
+        <v>0.6368544529268974</v>
       </c>
       <c r="I10">
-        <v>0.377745864109869</v>
+        <v>0.5035431526221856</v>
       </c>
       <c r="J10">
-        <v>0.08251545985621789</v>
+        <v>0.1611973355970804</v>
       </c>
       <c r="K10">
-        <v>3.621157104315557</v>
+        <v>1.18780550151132</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9030635240565559</v>
+        <v>0.4020257513762218</v>
       </c>
       <c r="N10">
-        <v>0.9201373070007008</v>
+        <v>1.212044360880711</v>
       </c>
       <c r="O10">
-        <v>1.370672628402161</v>
+        <v>2.254401967138847</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1055075364815679</v>
+        <v>0.03473479761056808</v>
       </c>
       <c r="D11">
-        <v>0.2129941174999743</v>
+        <v>0.2408575607213947</v>
       </c>
       <c r="E11">
-        <v>0.1138100055073714</v>
+        <v>0.1679642986222127</v>
       </c>
       <c r="F11">
-        <v>0.7075234773346892</v>
+        <v>1.047172468669999</v>
       </c>
       <c r="G11">
-        <v>0.4149964876406784</v>
+        <v>0.509321028698011</v>
       </c>
       <c r="H11">
-        <v>0.2835049178204514</v>
+        <v>0.6350366473030249</v>
       </c>
       <c r="I11">
-        <v>0.3963011730496646</v>
+        <v>0.5051728607625705</v>
       </c>
       <c r="J11">
-        <v>0.08496729099137923</v>
+        <v>0.1609486975327457</v>
       </c>
       <c r="K11">
-        <v>3.87766626851419</v>
+        <v>1.267435420670665</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9678424568240516</v>
+        <v>0.4207792752454509</v>
       </c>
       <c r="N11">
-        <v>0.9298097181397083</v>
+        <v>1.21328779201832</v>
       </c>
       <c r="O11">
-        <v>1.424402042686808</v>
+        <v>2.253758138010767</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.108135017844404</v>
+        <v>0.03555469509247189</v>
       </c>
       <c r="D12">
-        <v>0.2172745674505592</v>
+        <v>0.2417583810162256</v>
       </c>
       <c r="E12">
-        <v>0.1156698022193545</v>
+        <v>0.1681857211539679</v>
       </c>
       <c r="F12">
-        <v>0.7188137139951323</v>
+        <v>1.047859161448017</v>
       </c>
       <c r="G12">
-        <v>0.422726574668232</v>
+        <v>0.5099106244794882</v>
       </c>
       <c r="H12">
-        <v>0.2856432646837277</v>
+        <v>0.634392960664357</v>
       </c>
       <c r="I12">
-        <v>0.4034751653968129</v>
+        <v>0.505838374995129</v>
       </c>
       <c r="J12">
-        <v>0.08592691347784154</v>
+        <v>0.1608669830643095</v>
       </c>
       <c r="K12">
-        <v>3.974878692079415</v>
+        <v>1.297560543230929</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9924252732804746</v>
+        <v>0.4278877983380909</v>
       </c>
       <c r="N12">
-        <v>0.9336417340505818</v>
+        <v>1.213819438197163</v>
       </c>
       <c r="O12">
-        <v>1.445357905623297</v>
+        <v>2.253724543373181</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1075689627810164</v>
+        <v>0.03537817594660453</v>
       </c>
       <c r="D13">
-        <v>0.2163513847830245</v>
+        <v>0.241563815147785</v>
       </c>
       <c r="E13">
-        <v>0.1152680513601112</v>
+        <v>0.1681375402081819</v>
       </c>
       <c r="F13">
-        <v>0.7163708251487435</v>
+        <v>1.047707294226655</v>
       </c>
       <c r="G13">
-        <v>0.4210532780896727</v>
+        <v>0.509781166240046</v>
       </c>
       <c r="H13">
-        <v>0.2851779792422917</v>
+        <v>0.6345296035273833</v>
       </c>
       <c r="I13">
-        <v>0.4019233653606165</v>
+        <v>0.5056928926766986</v>
       </c>
       <c r="J13">
-        <v>0.08571881987296592</v>
+        <v>0.1608840285154685</v>
       </c>
       <c r="K13">
-        <v>3.953938421381508</v>
+        <v>1.291073880466797</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9871284620025449</v>
+        <v>0.4263565479993332</v>
       </c>
       <c r="N13">
-        <v>0.9328087563338983</v>
+        <v>1.213702239335191</v>
       </c>
       <c r="O13">
-        <v>1.440816805415864</v>
+        <v>2.253722427101479</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1057236210882451</v>
+        <v>0.03480227825939153</v>
       </c>
       <c r="D14">
-        <v>0.2133456851811246</v>
+        <v>0.2409314201223367</v>
       </c>
       <c r="E14">
-        <v>0.1139624695394907</v>
+        <v>0.1679822926989907</v>
       </c>
       <c r="F14">
-        <v>0.7084472526540111</v>
+        <v>1.047227171742989</v>
       </c>
       <c r="G14">
-        <v>0.4156286464299654</v>
+        <v>0.5093684184881937</v>
       </c>
       <c r="H14">
-        <v>0.2836787088670434</v>
+        <v>0.6349827955843068</v>
       </c>
       <c r="I14">
-        <v>0.3968883566283097</v>
+        <v>0.5052266433403574</v>
       </c>
       <c r="J14">
-        <v>0.08504560231937575</v>
+        <v>0.1609417255387697</v>
       </c>
       <c r="K14">
-        <v>3.885662298540467</v>
+        <v>1.269914425206764</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9698638024872963</v>
+        <v>0.421363960649316</v>
       </c>
       <c r="N14">
-        <v>0.9301215318971714</v>
+        <v>1.213330314114899</v>
       </c>
       <c r="O14">
-        <v>1.426113601007899</v>
+        <v>2.253751160400554</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1045938086670901</v>
+        <v>0.03444934787104614</v>
       </c>
       <c r="D15">
-        <v>0.2115084077292124</v>
+        <v>0.2405456956799128</v>
       </c>
       <c r="E15">
-        <v>0.1131662737421308</v>
+        <v>0.1678886450675812</v>
       </c>
       <c r="F15">
-        <v>0.7036266939240079</v>
+        <v>1.046944724615543</v>
       </c>
       <c r="G15">
-        <v>0.4123304769105687</v>
+        <v>0.5091228535842163</v>
       </c>
       <c r="H15">
-        <v>0.282774162979166</v>
+        <v>0.6352662062255803</v>
       </c>
       <c r="I15">
-        <v>0.393823833557768</v>
+        <v>0.5049473530115733</v>
       </c>
       <c r="J15">
-        <v>0.08463736191466609</v>
+        <v>0.1609786865631051</v>
       </c>
       <c r="K15">
-        <v>3.84385203693148</v>
+        <v>1.256949812333346</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9592957692189046</v>
+        <v>0.4183067508793101</v>
       </c>
       <c r="N15">
-        <v>0.9284978633670136</v>
+        <v>1.213110407590548</v>
       </c>
       <c r="O15">
-        <v>1.417188279396072</v>
+        <v>2.253796140253115</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.09812655192999387</v>
+        <v>0.03242416715056606</v>
       </c>
       <c r="D16">
-        <v>0.2010362762336086</v>
+        <v>0.2383604062051887</v>
       </c>
       <c r="E16">
-        <v>0.1086559656110957</v>
+        <v>0.1673741728773699</v>
       </c>
       <c r="F16">
-        <v>0.6764913577130613</v>
+        <v>1.045504594323965</v>
       </c>
       <c r="G16">
-        <v>0.3937950461797612</v>
+        <v>0.5078267494059361</v>
       </c>
       <c r="H16">
-        <v>0.2777968940286115</v>
+        <v>0.6369795042081137</v>
       </c>
       <c r="I16">
-        <v>0.3765532240003893</v>
+        <v>0.5034434164649255</v>
       </c>
       <c r="J16">
-        <v>0.0823594686061071</v>
+        <v>0.1612153254648589</v>
       </c>
       <c r="K16">
-        <v>3.604403303785318</v>
+        <v>1.182597549136858</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8988369715812041</v>
+        <v>0.4008011649500034</v>
       </c>
       <c r="N16">
-        <v>0.9195283572002211</v>
+        <v>1.211971619978655</v>
       </c>
       <c r="O16">
-        <v>1.367244033392211</v>
+        <v>2.254473450563069</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.09416490611454265</v>
+        <v>0.03117942046611688</v>
       </c>
       <c r="D17">
-        <v>0.1946606423958173</v>
+        <v>0.2370423114737434</v>
       </c>
       <c r="E17">
-        <v>0.1059342326840813</v>
+        <v>0.1670783804344644</v>
       </c>
       <c r="F17">
-        <v>0.660266161849961</v>
+        <v>1.044780389328032</v>
       </c>
       <c r="G17">
-        <v>0.3827375597478664</v>
+        <v>0.5071307167337693</v>
       </c>
       <c r="H17">
-        <v>0.2749220690538294</v>
+        <v>0.6381101622144598</v>
       </c>
       <c r="I17">
-        <v>0.3662083581292137</v>
+        <v>0.5026069525622887</v>
       </c>
       <c r="J17">
-        <v>0.0810152335538703</v>
+        <v>0.1613826533577409</v>
       </c>
       <c r="K17">
-        <v>3.457624126766689</v>
+        <v>1.136935317662903</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8618323881450678</v>
+        <v>0.3900749621917612</v>
       </c>
       <c r="N17">
-        <v>0.9143171606321943</v>
+        <v>1.211381556644014</v>
       </c>
       <c r="O17">
-        <v>1.337640710360773</v>
+        <v>2.255263209002663</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.09188815244199589</v>
+        <v>0.0304626170195661</v>
       </c>
       <c r="D18">
-        <v>0.1910107418341909</v>
+        <v>0.2362924803586282</v>
       </c>
       <c r="E18">
-        <v>0.1043847784731078</v>
+        <v>0.1669155415453716</v>
       </c>
       <c r="F18">
-        <v>0.6510828574311063</v>
+        <v>1.044422386119358</v>
       </c>
       <c r="G18">
-        <v>0.3764879816842921</v>
+        <v>0.5067667598611081</v>
       </c>
       <c r="H18">
-        <v>0.2733320265217003</v>
+        <v>0.6387897504247348</v>
       </c>
       <c r="I18">
-        <v>0.3603464893170596</v>
+        <v>0.5021574961524777</v>
       </c>
       <c r="J18">
-        <v>0.08026092660148265</v>
+        <v>0.1614870392130143</v>
       </c>
       <c r="K18">
-        <v>3.373235886942098</v>
+        <v>1.110654048172137</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.840577081173862</v>
+        <v>0.3839104251482581</v>
       </c>
       <c r="N18">
-        <v>0.9114238917091058</v>
+        <v>1.211082142581105</v>
       </c>
       <c r="O18">
-        <v>1.320979715262354</v>
+        <v>2.255854944667817</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.09111758217156307</v>
+        <v>0.03021977332286951</v>
       </c>
       <c r="D19">
-        <v>0.1897778371792782</v>
+        <v>0.2360400291585734</v>
       </c>
       <c r="E19">
-        <v>0.103862855276379</v>
+        <v>0.1668616605894186</v>
       </c>
       <c r="F19">
-        <v>0.6479985934883885</v>
+        <v>1.044311227659513</v>
       </c>
       <c r="G19">
-        <v>0.3743904995281895</v>
+        <v>0.5066497761472846</v>
       </c>
       <c r="H19">
-        <v>0.2728043697049856</v>
+        <v>0.6390248742249867</v>
       </c>
       <c r="I19">
-        <v>0.3583765722562831</v>
+        <v>0.5020107542898273</v>
       </c>
       <c r="J19">
-        <v>0.08000870749820166</v>
+        <v>0.1615237811258652</v>
       </c>
       <c r="K19">
-        <v>3.344668894675692</v>
+        <v>1.101752706327829</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8333851101250929</v>
+        <v>0.3818240728921509</v>
       </c>
       <c r="N19">
-        <v>0.9104618790367169</v>
+        <v>1.210987639898178</v>
       </c>
       <c r="O19">
-        <v>1.315400103202194</v>
+        <v>2.256078905191885</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.09458642985272547</v>
+        <v>0.03131201492271884</v>
       </c>
       <c r="D20">
-        <v>0.1953375444518741</v>
+        <v>0.2371817663455005</v>
       </c>
       <c r="E20">
-        <v>0.1062222951670684</v>
+        <v>0.1671091134499996</v>
       </c>
       <c r="F20">
-        <v>0.6619778103396712</v>
+        <v>1.044851423697231</v>
       </c>
       <c r="G20">
-        <v>0.3839031165918101</v>
+        <v>0.5072010444285695</v>
       </c>
       <c r="H20">
-        <v>0.2752214815650689</v>
+        <v>0.6379867732657658</v>
       </c>
       <c r="I20">
-        <v>0.3673003741748246</v>
+        <v>0.5026927192265447</v>
       </c>
       <c r="J20">
-        <v>0.08115636246245828</v>
+        <v>0.1613639982289641</v>
       </c>
       <c r="K20">
-        <v>3.473245217992087</v>
+        <v>1.141797972138079</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8657685592261046</v>
+        <v>0.3912162819092515</v>
       </c>
       <c r="N20">
-        <v>0.9148610641231727</v>
+        <v>1.211440234569807</v>
       </c>
       <c r="O20">
-        <v>1.340753825374463</v>
+        <v>2.25516490733105</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.10626553434453</v>
+        <v>0.03497147019579927</v>
       </c>
       <c r="D21">
-        <v>0.2142277359333349</v>
+        <v>0.2411168291443175</v>
       </c>
       <c r="E21">
-        <v>0.1143452154278002</v>
+        <v>0.1680275913737326</v>
       </c>
       <c r="F21">
-        <v>0.7107677156632235</v>
+        <v>1.047365769279779</v>
       </c>
       <c r="G21">
-        <v>0.4172168428697631</v>
+        <v>0.5094881404015439</v>
       </c>
       <c r="H21">
-        <v>0.2841161922685984</v>
+        <v>0.6348484697962959</v>
       </c>
       <c r="I21">
-        <v>0.3983631616664667</v>
+        <v>0.5053622789532142</v>
       </c>
       <c r="J21">
-        <v>0.0852424790178361</v>
+        <v>0.1609244409348065</v>
       </c>
       <c r="K21">
-        <v>3.905714351186759</v>
+        <v>1.276130272999296</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9749333636248778</v>
+        <v>0.4228302190581559</v>
       </c>
       <c r="N21">
-        <v>0.9309061628986939</v>
+        <v>1.213437909922604</v>
       </c>
       <c r="O21">
-        <v>1.430415360433358</v>
+        <v>2.253737014529577</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1139207576866141</v>
+        <v>0.03735526799206923</v>
       </c>
       <c r="D22">
-        <v>0.2267417701877008</v>
+        <v>0.2437619138745646</v>
       </c>
       <c r="E22">
-        <v>0.1198095272561339</v>
+        <v>0.1686926126085773</v>
       </c>
       <c r="F22">
-        <v>0.7441093597239501</v>
+        <v>1.04953012352199</v>
       </c>
       <c r="G22">
-        <v>0.4400761413548651</v>
+        <v>0.5113075244324392</v>
       </c>
       <c r="H22">
-        <v>0.2905412380344359</v>
+        <v>0.6330578052254339</v>
       </c>
       <c r="I22">
-        <v>0.4195301388885397</v>
+        <v>0.5073889879067508</v>
       </c>
       <c r="J22">
-        <v>0.0880957509665663</v>
+        <v>0.1607096703109576</v>
       </c>
       <c r="K22">
-        <v>4.188823863483378</v>
+        <v>1.363754245067128</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.046588551707671</v>
+        <v>0.443532171472917</v>
       </c>
       <c r="N22">
-        <v>0.9423840557892618</v>
+        <v>1.215097694300326</v>
       </c>
       <c r="O22">
-        <v>1.492591626538854</v>
+        <v>2.254029133163641</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1098327079068184</v>
+        <v>0.0360837211536591</v>
       </c>
       <c r="D23">
-        <v>0.2200466462764155</v>
+        <v>0.2423435067681794</v>
       </c>
       <c r="E23">
-        <v>0.116878243541592</v>
+        <v>0.1683317640527022</v>
       </c>
       <c r="F23">
-        <v>0.7261747759434911</v>
+        <v>1.048327298157574</v>
       </c>
       <c r="G23">
-        <v>0.4277710387610227</v>
+        <v>0.5103067496114733</v>
       </c>
       <c r="H23">
-        <v>0.2870537464087732</v>
+        <v>0.6339896994065555</v>
       </c>
       <c r="I23">
-        <v>0.408149696123786</v>
+        <v>0.5062814873507548</v>
       </c>
       <c r="J23">
-        <v>0.08655544013728189</v>
+        <v>0.1608176636504766</v>
       </c>
       <c r="K23">
-        <v>4.037672642658947</v>
+        <v>1.317003888733666</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.008313780745929</v>
+        <v>0.4324796035196883</v>
       </c>
       <c r="N23">
-        <v>0.9361641139664272</v>
+        <v>1.214179513203234</v>
       </c>
       <c r="O23">
-        <v>1.459063695427346</v>
+        <v>2.253761057508711</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.09439585638514814</v>
+        <v>0.03125207264729113</v>
       </c>
       <c r="D24">
-        <v>0.1950314688039185</v>
+        <v>0.2371186939989656</v>
       </c>
       <c r="E24">
-        <v>0.1060920145828632</v>
+        <v>0.1670951965742589</v>
       </c>
       <c r="F24">
-        <v>0.6612035244964858</v>
+        <v>1.044819127295227</v>
       </c>
       <c r="G24">
-        <v>0.3833758345734424</v>
+        <v>0.5071691365198774</v>
       </c>
       <c r="H24">
-        <v>0.2750859222754229</v>
+        <v>0.6380424653362979</v>
       </c>
       <c r="I24">
-        <v>0.3668064081744902</v>
+        <v>0.5026538461926435</v>
       </c>
       <c r="J24">
-        <v>0.08109250058371487</v>
+        <v>0.1613724067117133</v>
       </c>
       <c r="K24">
-        <v>3.466182933430048</v>
+        <v>1.139599657613701</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8639889573023964</v>
+        <v>0.3907002846895224</v>
       </c>
       <c r="N24">
-        <v>0.9146148461154269</v>
+        <v>1.211413582218938</v>
       </c>
       <c r="O24">
-        <v>1.339345273342701</v>
+        <v>2.255208920623943</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.07781371774298407</v>
+        <v>0.02600766573807789</v>
       </c>
       <c r="D25">
-        <v>0.1686981504489751</v>
+        <v>0.231800643770157</v>
       </c>
       <c r="E25">
-        <v>0.09506291837359271</v>
+        <v>0.1660402965494292</v>
       </c>
       <c r="F25">
-        <v>0.596752336509347</v>
+        <v>1.043273167878134</v>
       </c>
       <c r="G25">
-        <v>0.3396557950522663</v>
+        <v>0.505175257557255</v>
       </c>
       <c r="H25">
-        <v>0.2645798338833174</v>
+        <v>0.643532945021704</v>
       </c>
       <c r="I25">
-        <v>0.325542828157225</v>
+        <v>0.4999509888689602</v>
       </c>
       <c r="J25">
-        <v>0.07591333439940939</v>
+        <v>0.1622821217780164</v>
       </c>
       <c r="K25">
-        <v>2.851010424000293</v>
+        <v>0.9475764465604186</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7093831970474085</v>
+        <v>0.3458232157546774</v>
       </c>
       <c r="N25">
-        <v>0.895316243387299</v>
+        <v>1.209959460834455</v>
       </c>
       <c r="O25">
-        <v>1.224041596409194</v>
+        <v>2.262026368903577</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_180/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_180/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02211840812437771</v>
+        <v>0.06563364349360512</v>
       </c>
       <c r="D2">
-        <v>0.2281605407615217</v>
+        <v>0.1497886015278596</v>
       </c>
       <c r="E2">
-        <v>0.1655041902529852</v>
+        <v>0.08739723485363626</v>
       </c>
       <c r="F2">
-        <v>1.044059152216271</v>
+        <v>0.5534971705856648</v>
       </c>
       <c r="G2">
-        <v>0.5048982488050342</v>
+        <v>0.3105291039895306</v>
       </c>
       <c r="H2">
-        <v>0.6485391751380547</v>
+        <v>0.258679289828855</v>
       </c>
       <c r="I2">
-        <v>0.4989997458086108</v>
+        <v>0.2976236172357218</v>
       </c>
       <c r="J2">
-        <v>0.1632197117049579</v>
+        <v>0.07263944213826434</v>
       </c>
       <c r="K2">
-        <v>0.8056589153039511</v>
+        <v>2.398319452938722</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3129514844872716</v>
+        <v>0.5961822189869039</v>
       </c>
       <c r="N2">
-        <v>1.210212824776477</v>
+        <v>0.8841772379675064</v>
       </c>
       <c r="O2">
-        <v>2.271558306032517</v>
+        <v>1.149451979926184</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01946547193403347</v>
+        <v>0.0573835499184554</v>
       </c>
       <c r="D3">
-        <v>0.2258667498629023</v>
+        <v>0.1372361664064954</v>
       </c>
       <c r="E3">
-        <v>0.1652913602818984</v>
+        <v>0.08245551075691182</v>
       </c>
       <c r="F3">
-        <v>1.04579205144001</v>
+        <v>0.5265056057153501</v>
       </c>
       <c r="G3">
-        <v>0.5054511691111259</v>
+        <v>0.2924608496794363</v>
       </c>
       <c r="H3">
-        <v>0.6525337481336919</v>
+        <v>0.2557180961837062</v>
       </c>
       <c r="I3">
-        <v>0.4990022720666083</v>
+        <v>0.2800528405184934</v>
       </c>
       <c r="J3">
-        <v>0.1640221824738681</v>
+        <v>0.07072293912239758</v>
       </c>
       <c r="K3">
-        <v>0.7091709022875534</v>
+        <v>2.091314540691485</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2907857633141759</v>
+        <v>0.5197308212752603</v>
       </c>
       <c r="N3">
-        <v>1.21121520712552</v>
+        <v>0.8783952401987563</v>
       </c>
       <c r="O3">
-        <v>2.280829316501269</v>
+        <v>1.104598252471845</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0178282052865697</v>
+        <v>0.05231597443408731</v>
       </c>
       <c r="D4">
-        <v>0.224544235340062</v>
+        <v>0.1296474062723689</v>
       </c>
       <c r="E4">
-        <v>0.1652350726342817</v>
+        <v>0.07953686650309777</v>
       </c>
       <c r="F4">
-        <v>1.047448171944325</v>
+        <v>0.5109866201694331</v>
       </c>
       <c r="G4">
-        <v>0.5061552958856268</v>
+        <v>0.2821168718161005</v>
       </c>
       <c r="H4">
-        <v>0.6552835364291312</v>
+        <v>0.2543786304172571</v>
       </c>
       <c r="I4">
-        <v>0.4993228547451842</v>
+        <v>0.2698728445151026</v>
       </c>
       <c r="J4">
-        <v>0.1645973232094491</v>
+        <v>0.06968466318226518</v>
       </c>
       <c r="K4">
-        <v>0.6497833931098285</v>
+        <v>1.902598641722903</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2772331026052868</v>
+        <v>0.4728817809348556</v>
       </c>
       <c r="N4">
-        <v>1.212242156522244</v>
+        <v>0.8756712170681027</v>
       </c>
       <c r="O4">
-        <v>2.287907377829626</v>
+        <v>1.079640672964189</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01715893373855693</v>
+        <v>0.0502498416056909</v>
       </c>
       <c r="D5">
-        <v>0.2240269867784548</v>
+        <v>0.1265832073058277</v>
       </c>
       <c r="E5">
-        <v>0.1652308724656493</v>
+        <v>0.07837525590283789</v>
       </c>
       <c r="F5">
-        <v>1.048272002177853</v>
+        <v>0.5049146453996016</v>
       </c>
       <c r="G5">
-        <v>0.5065338456468069</v>
+        <v>0.2780797575532787</v>
       </c>
       <c r="H5">
-        <v>0.6564788520196529</v>
+        <v>0.2539484971717414</v>
       </c>
       <c r="I5">
-        <v>0.4995337148107737</v>
+        <v>0.2658693589003356</v>
       </c>
       <c r="J5">
-        <v>0.1648524289168982</v>
+        <v>0.06929488016952234</v>
       </c>
       <c r="K5">
-        <v>0.6255482522211935</v>
+        <v>1.825627902309321</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2717250874423485</v>
+        <v>0.453808576299032</v>
       </c>
       <c r="N5">
-        <v>1.212764416319423</v>
+        <v>0.8747625686702207</v>
       </c>
       <c r="O5">
-        <v>2.291140096300751</v>
+        <v>1.070087772449526</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01704767739249036</v>
+        <v>0.04990668238592377</v>
       </c>
       <c r="D6">
-        <v>0.2239424105575551</v>
+        <v>0.1260760647188945</v>
       </c>
       <c r="E6">
-        <v>0.1652313076512044</v>
+        <v>0.07818401088625393</v>
       </c>
       <c r="F6">
-        <v>1.048417796280923</v>
+        <v>0.5039212608399879</v>
       </c>
       <c r="G6">
-        <v>0.5066022344421768</v>
+        <v>0.2774198598952111</v>
       </c>
       <c r="H6">
-        <v>0.6566818495865263</v>
+        <v>0.2538839298114652</v>
       </c>
       <c r="I6">
-        <v>0.4995735729662911</v>
+        <v>0.2652131079455202</v>
       </c>
       <c r="J6">
-        <v>0.1648960413121792</v>
+        <v>0.06923212709871862</v>
       </c>
       <c r="K6">
-        <v>0.6215220109098141</v>
+        <v>1.812842510153644</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2708113923741422</v>
+        <v>0.4506424390546258</v>
       </c>
       <c r="N6">
-        <v>1.212857413467887</v>
+        <v>0.8746236744654325</v>
       </c>
       <c r="O6">
-        <v>2.291697924082342</v>
+        <v>1.068537908913981</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01781918761058421</v>
+        <v>0.05228811483019058</v>
       </c>
       <c r="D7">
-        <v>0.2245371716145428</v>
+        <v>0.1296059688463487</v>
       </c>
       <c r="E7">
-        <v>0.1652349400801434</v>
+        <v>0.07952108990023987</v>
       </c>
       <c r="F7">
-        <v>1.04745867924958</v>
+        <v>0.5109037271231074</v>
       </c>
       <c r="G7">
-        <v>0.5061600303075195</v>
+        <v>0.2820617180853588</v>
       </c>
       <c r="H7">
-        <v>0.6552993541353516</v>
+        <v>0.2543723670051179</v>
       </c>
       <c r="I7">
-        <v>0.4993253736743313</v>
+        <v>0.2698182756497332</v>
       </c>
       <c r="J7">
-        <v>0.1646006797063819</v>
+        <v>0.06967927343891134</v>
       </c>
       <c r="K7">
-        <v>0.6494566857692519</v>
+        <v>1.901560878140828</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2771587590812317</v>
+        <v>0.4726244860054223</v>
       </c>
       <c r="N7">
-        <v>1.212248779341849</v>
+        <v>0.8756581553210836</v>
       </c>
       <c r="O7">
-        <v>2.287949565042908</v>
+        <v>1.079509380127504</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02120542569902284</v>
+        <v>0.0627890783455598</v>
       </c>
       <c r="D8">
-        <v>0.227351870226272</v>
+        <v>0.1454349948557194</v>
       </c>
       <c r="E8">
-        <v>0.1654153850184734</v>
+        <v>0.08566853145428865</v>
       </c>
       <c r="F8">
-        <v>1.044533793981522</v>
+        <v>0.5439637972803411</v>
       </c>
       <c r="G8">
-        <v>0.505013168738941</v>
+        <v>0.3041370700468562</v>
       </c>
       <c r="H8">
-        <v>0.6498548666622668</v>
+        <v>0.257556038089902</v>
       </c>
       <c r="I8">
-        <v>0.4989343985831098</v>
+        <v>0.2914339399048913</v>
       </c>
       <c r="J8">
-        <v>0.1634793006254043</v>
+        <v>0.07194897319593352</v>
       </c>
       <c r="K8">
-        <v>0.7724206954846693</v>
+        <v>2.292499840697218</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3052971236859889</v>
+        <v>0.5697994223178213</v>
       </c>
       <c r="N8">
-        <v>1.210473218838402</v>
+        <v>0.8820082227155552</v>
       </c>
       <c r="O8">
-        <v>2.274467315300583</v>
+        <v>1.133430685594888</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02777859969658891</v>
+        <v>0.08339296699323029</v>
       </c>
       <c r="D9">
-        <v>0.2335493939344104</v>
+        <v>0.1774890103041997</v>
       </c>
       <c r="E9">
-        <v>0.1663583158359216</v>
+        <v>0.09870318079212836</v>
       </c>
       <c r="F9">
-        <v>1.04349498440758</v>
+        <v>0.6177691273382777</v>
       </c>
       <c r="G9">
-        <v>0.5056615618921967</v>
+        <v>0.3538735856309785</v>
       </c>
       <c r="H9">
-        <v>0.641533870500254</v>
+        <v>0.2678188916003847</v>
       </c>
       <c r="I9">
-        <v>0.5006999565374528</v>
+        <v>0.339034082031759</v>
       </c>
       <c r="J9">
-        <v>0.161934089269117</v>
+        <v>0.07756937491488713</v>
       </c>
       <c r="K9">
-        <v>1.012345229159052</v>
+        <v>3.058139540673864</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3609141982558981</v>
+        <v>0.7613455906748214</v>
       </c>
       <c r="N9">
-        <v>1.210244217481588</v>
+        <v>0.9013193405374693</v>
       </c>
       <c r="O9">
-        <v>2.259028465020776</v>
+        <v>1.261178613981201</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03256608436493025</v>
+        <v>0.09857887625886974</v>
       </c>
       <c r="D10">
-        <v>0.2385119327819183</v>
+        <v>0.2017661602372698</v>
       </c>
       <c r="E10">
-        <v>0.1674089124060103</v>
+        <v>0.1089687469462426</v>
       </c>
       <c r="F10">
-        <v>1.045595162854788</v>
+        <v>0.6783633773171474</v>
       </c>
       <c r="G10">
-        <v>0.5079111037872366</v>
+        <v>0.3950720839394535</v>
       </c>
       <c r="H10">
-        <v>0.6368544529268974</v>
+        <v>0.278133687053554</v>
       </c>
       <c r="I10">
-        <v>0.5035431526221856</v>
+        <v>0.3777458641098832</v>
       </c>
       <c r="J10">
-        <v>0.1611973355970804</v>
+        <v>0.08251545985616104</v>
       </c>
       <c r="K10">
-        <v>1.18780550151132</v>
+        <v>3.621157104315671</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4020257513762218</v>
+        <v>0.9030635240565488</v>
       </c>
       <c r="N10">
-        <v>1.212044360880711</v>
+        <v>0.9201373070006866</v>
       </c>
       <c r="O10">
-        <v>2.254401967138847</v>
+        <v>1.370672628402247</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03473479761056808</v>
+        <v>0.1055075364818094</v>
       </c>
       <c r="D11">
-        <v>0.2408575607213947</v>
+        <v>0.2129941174997469</v>
       </c>
       <c r="E11">
-        <v>0.1679642986222127</v>
+        <v>0.1138100055073608</v>
       </c>
       <c r="F11">
-        <v>1.047172468669999</v>
+        <v>0.7075234773346892</v>
       </c>
       <c r="G11">
-        <v>0.509321028698011</v>
+        <v>0.4149964876407068</v>
       </c>
       <c r="H11">
-        <v>0.6350366473030249</v>
+        <v>0.2835049178204372</v>
       </c>
       <c r="I11">
-        <v>0.5051728607625705</v>
+        <v>0.3963011730496646</v>
       </c>
       <c r="J11">
-        <v>0.1609486975327457</v>
+        <v>0.08496729099140765</v>
       </c>
       <c r="K11">
-        <v>1.267435420670665</v>
+        <v>3.87766626851419</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4207792752454509</v>
+        <v>0.9678424568240516</v>
       </c>
       <c r="N11">
-        <v>1.21328779201832</v>
+        <v>0.9298097181396656</v>
       </c>
       <c r="O11">
-        <v>2.253758138010767</v>
+        <v>1.424402042686836</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03555469509247189</v>
+        <v>0.1081350178441909</v>
       </c>
       <c r="D12">
-        <v>0.2417583810162256</v>
+        <v>0.217274567450616</v>
       </c>
       <c r="E12">
-        <v>0.1681857211539679</v>
+        <v>0.1156698022193687</v>
       </c>
       <c r="F12">
-        <v>1.047859161448017</v>
+        <v>0.7188137139951323</v>
       </c>
       <c r="G12">
-        <v>0.5099106244794882</v>
+        <v>0.422726574668232</v>
       </c>
       <c r="H12">
-        <v>0.634392960664357</v>
+        <v>0.285643264683614</v>
       </c>
       <c r="I12">
-        <v>0.505838374995129</v>
+        <v>0.4034751653968058</v>
       </c>
       <c r="J12">
-        <v>0.1608669830643095</v>
+        <v>0.08592691347784154</v>
       </c>
       <c r="K12">
-        <v>1.297560543230929</v>
+        <v>3.974878692079358</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4278877983380909</v>
+        <v>0.9924252732804817</v>
       </c>
       <c r="N12">
-        <v>1.213819438197163</v>
+        <v>0.933641734050525</v>
       </c>
       <c r="O12">
-        <v>2.253724543373181</v>
+        <v>1.44535790562324</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03537817594660453</v>
+        <v>0.1075689627810164</v>
       </c>
       <c r="D13">
-        <v>0.241563815147785</v>
+        <v>0.2163513847830245</v>
       </c>
       <c r="E13">
-        <v>0.1681375402081819</v>
+        <v>0.1152680513601112</v>
       </c>
       <c r="F13">
-        <v>1.047707294226655</v>
+        <v>0.7163708251487435</v>
       </c>
       <c r="G13">
-        <v>0.509781166240046</v>
+        <v>0.4210532780896727</v>
       </c>
       <c r="H13">
-        <v>0.6345296035273833</v>
+        <v>0.2851779792423059</v>
       </c>
       <c r="I13">
-        <v>0.5056928926766986</v>
+        <v>0.4019233653606307</v>
       </c>
       <c r="J13">
-        <v>0.1608840285154685</v>
+        <v>0.08571881987296592</v>
       </c>
       <c r="K13">
-        <v>1.291073880466797</v>
+        <v>3.953938421381508</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4263565479993332</v>
+        <v>0.9871284620025449</v>
       </c>
       <c r="N13">
-        <v>1.213702239335191</v>
+        <v>0.9328087563338983</v>
       </c>
       <c r="O13">
-        <v>2.253722427101479</v>
+        <v>1.440816805415864</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03480227825939153</v>
+        <v>0.1057236210879893</v>
       </c>
       <c r="D14">
-        <v>0.2409314201223367</v>
+        <v>0.2133456851811815</v>
       </c>
       <c r="E14">
-        <v>0.1679822926989907</v>
+        <v>0.1139624695394978</v>
       </c>
       <c r="F14">
-        <v>1.047227171742989</v>
+        <v>0.7084472526540111</v>
       </c>
       <c r="G14">
-        <v>0.5093684184881937</v>
+        <v>0.4156286464299939</v>
       </c>
       <c r="H14">
-        <v>0.6349827955843068</v>
+        <v>0.2836787088670434</v>
       </c>
       <c r="I14">
-        <v>0.5052266433403574</v>
+        <v>0.3968883566283097</v>
       </c>
       <c r="J14">
-        <v>0.1609417255387697</v>
+        <v>0.08504560231942548</v>
       </c>
       <c r="K14">
-        <v>1.269914425206764</v>
+        <v>3.88566229854041</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.421363960649316</v>
+        <v>0.9698638024872892</v>
       </c>
       <c r="N14">
-        <v>1.213330314114899</v>
+        <v>0.9301215318971714</v>
       </c>
       <c r="O14">
-        <v>2.253751160400554</v>
+        <v>1.426113601007842</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03444934787104614</v>
+        <v>0.1045938086673601</v>
       </c>
       <c r="D15">
-        <v>0.2405456956799128</v>
+        <v>0.2115084077290277</v>
       </c>
       <c r="E15">
-        <v>0.1678886450675812</v>
+        <v>0.1131662737421593</v>
       </c>
       <c r="F15">
-        <v>1.046944724615543</v>
+        <v>0.7036266939240221</v>
       </c>
       <c r="G15">
-        <v>0.5091228535842163</v>
+        <v>0.4123304769105829</v>
       </c>
       <c r="H15">
-        <v>0.6352662062255803</v>
+        <v>0.282774162979166</v>
       </c>
       <c r="I15">
-        <v>0.5049473530115733</v>
+        <v>0.393823833557768</v>
       </c>
       <c r="J15">
-        <v>0.1609786865631051</v>
+        <v>0.08463736191463056</v>
       </c>
       <c r="K15">
-        <v>1.256949812333346</v>
+        <v>3.84385203693148</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4183067508793101</v>
+        <v>0.9592957692189259</v>
       </c>
       <c r="N15">
-        <v>1.213110407590548</v>
+        <v>0.9284978633670136</v>
       </c>
       <c r="O15">
-        <v>2.253796140253115</v>
+        <v>1.417188279396129</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03242416715056606</v>
+        <v>0.09812655193023545</v>
       </c>
       <c r="D16">
-        <v>0.2383604062051887</v>
+        <v>0.2010362762331397</v>
       </c>
       <c r="E16">
-        <v>0.1673741728773699</v>
+        <v>0.1086559656110815</v>
       </c>
       <c r="F16">
-        <v>1.045504594323965</v>
+        <v>0.6764913577130827</v>
       </c>
       <c r="G16">
-        <v>0.5078267494059361</v>
+        <v>0.393795046179747</v>
       </c>
       <c r="H16">
-        <v>0.6369795042081137</v>
+        <v>0.2777968940286115</v>
       </c>
       <c r="I16">
-        <v>0.5034434164649255</v>
+        <v>0.3765532240003893</v>
       </c>
       <c r="J16">
-        <v>0.1612153254648589</v>
+        <v>0.08235946860600052</v>
       </c>
       <c r="K16">
-        <v>1.182597549136858</v>
+        <v>3.604403303785318</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4008011649500034</v>
+        <v>0.8988369715811899</v>
       </c>
       <c r="N16">
-        <v>1.211971619978655</v>
+        <v>0.9195283572002495</v>
       </c>
       <c r="O16">
-        <v>2.254473450563069</v>
+        <v>1.36724403339224</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.03117942046611688</v>
+        <v>0.09416490611455686</v>
       </c>
       <c r="D17">
-        <v>0.2370423114737434</v>
+        <v>0.194660642396002</v>
       </c>
       <c r="E17">
-        <v>0.1670783804344644</v>
+        <v>0.1059342326840955</v>
       </c>
       <c r="F17">
-        <v>1.044780389328032</v>
+        <v>0.6602661618499752</v>
       </c>
       <c r="G17">
-        <v>0.5071307167337693</v>
+        <v>0.3827375597477527</v>
       </c>
       <c r="H17">
-        <v>0.6381101622144598</v>
+        <v>0.2749220690538294</v>
       </c>
       <c r="I17">
-        <v>0.5026069525622887</v>
+        <v>0.3662083581292137</v>
       </c>
       <c r="J17">
-        <v>0.1613826533577409</v>
+        <v>0.08101523355389162</v>
       </c>
       <c r="K17">
-        <v>1.136935317662903</v>
+        <v>3.457624126766575</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3900749621917612</v>
+        <v>0.8618323881450678</v>
       </c>
       <c r="N17">
-        <v>1.211381556644014</v>
+        <v>0.9143171606322085</v>
       </c>
       <c r="O17">
-        <v>2.255263209002663</v>
+        <v>1.337640710360716</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0304626170195661</v>
+        <v>0.09188815244220905</v>
       </c>
       <c r="D18">
-        <v>0.2362924803586282</v>
+        <v>0.1910107418344609</v>
       </c>
       <c r="E18">
-        <v>0.1669155415453716</v>
+        <v>0.10438477847309</v>
       </c>
       <c r="F18">
-        <v>1.044422386119358</v>
+        <v>0.6510828574311063</v>
       </c>
       <c r="G18">
-        <v>0.5067667598611081</v>
+        <v>0.3764879816842353</v>
       </c>
       <c r="H18">
-        <v>0.6387897504247348</v>
+        <v>0.2733320265216008</v>
       </c>
       <c r="I18">
-        <v>0.5021574961524777</v>
+        <v>0.3603464893170596</v>
       </c>
       <c r="J18">
-        <v>0.1614870392130143</v>
+        <v>0.08026092660148265</v>
       </c>
       <c r="K18">
-        <v>1.110654048172137</v>
+        <v>3.373235886942155</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3839104251482581</v>
+        <v>0.840577081173862</v>
       </c>
       <c r="N18">
-        <v>1.211082142581105</v>
+        <v>0.9114238917091058</v>
       </c>
       <c r="O18">
-        <v>2.255854944667817</v>
+        <v>1.320979715262325</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.03021977332286951</v>
+        <v>0.09111758217156307</v>
       </c>
       <c r="D19">
-        <v>0.2360400291585734</v>
+        <v>0.1897778371792214</v>
       </c>
       <c r="E19">
-        <v>0.1668616605894186</v>
+        <v>0.103862855276379</v>
       </c>
       <c r="F19">
-        <v>1.044311227659513</v>
+        <v>0.6479985934883885</v>
       </c>
       <c r="G19">
-        <v>0.5066497761472846</v>
+        <v>0.3743904995280474</v>
       </c>
       <c r="H19">
-        <v>0.6390248742249867</v>
+        <v>0.2728043697049856</v>
       </c>
       <c r="I19">
-        <v>0.5020107542898273</v>
+        <v>0.3583765722562759</v>
       </c>
       <c r="J19">
-        <v>0.1615237811258652</v>
+        <v>0.08000870749818034</v>
       </c>
       <c r="K19">
-        <v>1.101752706327829</v>
+        <v>3.344668894675635</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3818240728921509</v>
+        <v>0.8333851101251071</v>
       </c>
       <c r="N19">
-        <v>1.210987639898178</v>
+        <v>0.9104618790367311</v>
       </c>
       <c r="O19">
-        <v>2.256078905191885</v>
+        <v>1.315400103202165</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.03131201492271884</v>
+        <v>0.09458642985251231</v>
       </c>
       <c r="D20">
-        <v>0.2371817663455005</v>
+        <v>0.1953375444519736</v>
       </c>
       <c r="E20">
-        <v>0.1671091134499996</v>
+        <v>0.1062222951670506</v>
       </c>
       <c r="F20">
-        <v>1.044851423697231</v>
+        <v>0.6619778103396712</v>
       </c>
       <c r="G20">
-        <v>0.5072010444285695</v>
+        <v>0.3839031165918243</v>
       </c>
       <c r="H20">
-        <v>0.6379867732657658</v>
+        <v>0.2752214815650689</v>
       </c>
       <c r="I20">
-        <v>0.5026927192265447</v>
+        <v>0.3673003741748246</v>
       </c>
       <c r="J20">
-        <v>0.1613639982289641</v>
+        <v>0.08115636246255065</v>
       </c>
       <c r="K20">
-        <v>1.141797972138079</v>
+        <v>3.473245217992257</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3912162819092515</v>
+        <v>0.8657685592260833</v>
       </c>
       <c r="N20">
-        <v>1.211440234569807</v>
+        <v>0.9148610641231159</v>
       </c>
       <c r="O20">
-        <v>2.25516490733105</v>
+        <v>1.34075382537452</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03497147019579927</v>
+        <v>0.1062655343444447</v>
       </c>
       <c r="D21">
-        <v>0.2411168291443175</v>
+        <v>0.2142277359334628</v>
       </c>
       <c r="E21">
-        <v>0.1680275913737326</v>
+        <v>0.1143452154278002</v>
       </c>
       <c r="F21">
-        <v>1.047365769279779</v>
+        <v>0.7107677156632235</v>
       </c>
       <c r="G21">
-        <v>0.5094881404015439</v>
+        <v>0.4172168428697347</v>
       </c>
       <c r="H21">
-        <v>0.6348484697962959</v>
+        <v>0.2841161922685984</v>
       </c>
       <c r="I21">
-        <v>0.5053622789532142</v>
+        <v>0.3983631616664738</v>
       </c>
       <c r="J21">
-        <v>0.1609244409348065</v>
+        <v>0.08524247901780768</v>
       </c>
       <c r="K21">
-        <v>1.276130272999296</v>
+        <v>3.905714351186703</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4228302190581559</v>
+        <v>0.9749333636248778</v>
       </c>
       <c r="N21">
-        <v>1.213437909922604</v>
+        <v>0.9309061628986797</v>
       </c>
       <c r="O21">
-        <v>2.253737014529577</v>
+        <v>1.430415360433301</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03735526799206923</v>
+        <v>0.1139207576867562</v>
       </c>
       <c r="D22">
-        <v>0.2437619138745646</v>
+        <v>0.226741770187644</v>
       </c>
       <c r="E22">
-        <v>0.1686926126085773</v>
+        <v>0.1198095272561623</v>
       </c>
       <c r="F22">
-        <v>1.04953012352199</v>
+        <v>0.7441093597239643</v>
       </c>
       <c r="G22">
-        <v>0.5113075244324392</v>
+        <v>0.4400761413548508</v>
       </c>
       <c r="H22">
-        <v>0.6330578052254339</v>
+        <v>0.2905412380344359</v>
       </c>
       <c r="I22">
-        <v>0.5073889879067508</v>
+        <v>0.4195301388885397</v>
       </c>
       <c r="J22">
-        <v>0.1607096703109576</v>
+        <v>0.08809575096661604</v>
       </c>
       <c r="K22">
-        <v>1.363754245067128</v>
+        <v>4.188823863483265</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.443532171472917</v>
+        <v>1.046588551707664</v>
       </c>
       <c r="N22">
-        <v>1.215097694300326</v>
+        <v>0.9423840557892618</v>
       </c>
       <c r="O22">
-        <v>2.254029133163641</v>
+        <v>1.492591626538882</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0360837211536591</v>
+        <v>0.1098327079065911</v>
       </c>
       <c r="D23">
-        <v>0.2423435067681794</v>
+        <v>0.2200466462764297</v>
       </c>
       <c r="E23">
-        <v>0.1683317640527022</v>
+        <v>0.116878243541592</v>
       </c>
       <c r="F23">
-        <v>1.048327298157574</v>
+        <v>0.7261747759434911</v>
       </c>
       <c r="G23">
-        <v>0.5103067496114733</v>
+        <v>0.4277710387610512</v>
       </c>
       <c r="H23">
-        <v>0.6339896994065555</v>
+        <v>0.2870537464086453</v>
       </c>
       <c r="I23">
-        <v>0.5062814873507548</v>
+        <v>0.4081496961237789</v>
       </c>
       <c r="J23">
-        <v>0.1608176636504766</v>
+        <v>0.08655544013730321</v>
       </c>
       <c r="K23">
-        <v>1.317003888733666</v>
+        <v>4.037672642658947</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4324796035196883</v>
+        <v>1.008313780745908</v>
       </c>
       <c r="N23">
-        <v>1.214179513203234</v>
+        <v>0.936164113966413</v>
       </c>
       <c r="O23">
-        <v>2.253761057508711</v>
+        <v>1.459063695427346</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.03125207264729113</v>
+        <v>0.09439585638513392</v>
       </c>
       <c r="D24">
-        <v>0.2371186939989656</v>
+        <v>0.195031468804018</v>
       </c>
       <c r="E24">
-        <v>0.1670951965742589</v>
+        <v>0.1060920145828597</v>
       </c>
       <c r="F24">
-        <v>1.044819127295227</v>
+        <v>0.6612035244964858</v>
       </c>
       <c r="G24">
-        <v>0.5071691365198774</v>
+        <v>0.3833758345734424</v>
       </c>
       <c r="H24">
-        <v>0.6380424653362979</v>
+        <v>0.2750859222754229</v>
       </c>
       <c r="I24">
-        <v>0.5026538461926435</v>
+        <v>0.3668064081744831</v>
       </c>
       <c r="J24">
-        <v>0.1613724067117133</v>
+        <v>0.08109250058383566</v>
       </c>
       <c r="K24">
-        <v>1.139599657613701</v>
+        <v>3.466182933430048</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3907002846895224</v>
+        <v>0.8639889573023964</v>
       </c>
       <c r="N24">
-        <v>1.211413582218938</v>
+        <v>0.9146148461154837</v>
       </c>
       <c r="O24">
-        <v>2.255208920623943</v>
+        <v>1.339345273342701</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02600766573807789</v>
+        <v>0.07781371774265722</v>
       </c>
       <c r="D25">
-        <v>0.231800643770157</v>
+        <v>0.1686981504491598</v>
       </c>
       <c r="E25">
-        <v>0.1660402965494292</v>
+        <v>0.09506291837359626</v>
       </c>
       <c r="F25">
-        <v>1.043273167878134</v>
+        <v>0.5967523365093257</v>
       </c>
       <c r="G25">
-        <v>0.505175257557255</v>
+        <v>0.3396557950522521</v>
       </c>
       <c r="H25">
-        <v>0.643532945021704</v>
+        <v>0.2645798338833032</v>
       </c>
       <c r="I25">
-        <v>0.4999509888689602</v>
+        <v>0.3255428281572179</v>
       </c>
       <c r="J25">
-        <v>0.1622821217780164</v>
+        <v>0.07591333439929571</v>
       </c>
       <c r="K25">
-        <v>0.9475764465604186</v>
+        <v>2.85101042400035</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3458232157546774</v>
+        <v>0.7093831970474227</v>
       </c>
       <c r="N25">
-        <v>1.209959460834455</v>
+        <v>0.895316243387299</v>
       </c>
       <c r="O25">
-        <v>2.262026368903577</v>
+        <v>1.224041596409251</v>
       </c>
     </row>
   </sheetData>
